--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1291048.051226805</v>
+        <v>-1294152.800380312</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>33.89412103271894</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>33.89412103271894</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="C5" t="n">
-        <v>35.34722801302366</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.13082199480434</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>40.13082199480434</v>
+        <v>15.1444114392378</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.13082199480434</v>
+        <v>13.32677083207381</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.34722801302365</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>35.34722801302306</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>21.32892558762068</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="K7" t="n">
-        <v>14.01830242540297</v>
+        <v>14.01830242540335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.32892558761971</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="G8" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>59.80127191868275</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.23574091930014</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>89.14525753719026</v>
       </c>
     </row>
     <row r="10">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.1633929685554</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.49256249015592</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>244.8450081818841</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>156.4137015018274</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.96969900783357</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.44513037171104</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337167</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>157.8596050513434</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>167.8008749362425</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C17" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D17" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E17" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F17" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G17" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H17" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>81.02033873387016</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T17" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U17" t="n">
-        <v>247.3166441206968</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V17" t="n">
-        <v>324.1600066031858</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W17" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.2397283149878</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6545692316784</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D19" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E19" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F19" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G19" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H19" t="n">
-        <v>136.8617379250044</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.5884997241341</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S19" t="n">
-        <v>177.7462364915095</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>161.5883060065216</v>
       </c>
       <c r="U19" t="n">
-        <v>282.593199681471</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W19" t="n">
-        <v>62.39194118064489</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X19" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C20" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D20" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E20" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F20" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G20" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458073</v>
       </c>
       <c r="H20" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>81.02033873387016</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T20" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U20" t="n">
-        <v>247.3166441206968</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V20" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W20" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X20" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.2397283149878</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C22" t="n">
-        <v>163.6545692316784</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E22" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F22" t="n">
-        <v>141.8287961559818</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H22" t="n">
-        <v>136.8617379250044</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I22" t="n">
-        <v>78.21232487745957</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.5884997241341</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>177.7462364915095</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T22" t="n">
-        <v>213.8897425958124</v>
+        <v>70.32073494533509</v>
       </c>
       <c r="U22" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V22" t="n">
-        <v>18.83526516425168</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X22" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C23" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D23" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E23" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F23" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G23" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H23" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>81.02033873387016</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T23" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U23" t="n">
-        <v>247.3166441206968</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V23" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W23" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X23" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.2397283149878</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C25" t="n">
-        <v>163.6545692316784</v>
+        <v>158.9197494337318</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>79.00265633481348</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H25" t="n">
-        <v>136.8617379250044</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I25" t="n">
-        <v>78.21232487745957</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.5884997241341</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S25" t="n">
-        <v>177.7462364915095</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T25" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U25" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V25" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W25" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X25" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C26" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D26" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E26" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F26" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G26" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H26" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.02033873387016</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T26" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U26" t="n">
-        <v>247.3166441206968</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V26" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W26" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.2397283149878</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C28" t="n">
-        <v>158.919749433734</v>
+        <v>158.9197494337318</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H28" t="n">
-        <v>136.8617379250044</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.5884997241341</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S28" t="n">
-        <v>177.7462364915095</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T28" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U28" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V28" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W28" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X28" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C29" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D29" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E29" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F29" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G29" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H29" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.02033873387016</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T29" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U29" t="n">
-        <v>247.3166441206968</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V29" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W29" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X29" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.2397283149878</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C31" t="n">
-        <v>163.6545692316784</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H31" t="n">
-        <v>132.12691812706</v>
+        <v>132.1269181270578</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.5884997241341</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S31" t="n">
-        <v>177.7462364915095</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T31" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U31" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V31" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W31" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X31" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>357.6389190488101</v>
+        <v>357.63891904881</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.1712108630577</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>384.7483533980871</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045443</v>
+        <v>258.4681693898738</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0953759295251</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3187,7 +3187,7 @@
         <v>154.7370575672668</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1518984839565</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D34" t="n">
         <v>123.5205504035418</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.08582897641304</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S34" t="n">
-        <v>156.2435657437885</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T34" t="n">
         <v>192.3870718480913</v>
@@ -3247,7 +3247,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W34" t="n">
-        <v>261.4280757219205</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X34" t="n">
         <v>200.6147327743666</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>329.5881190060124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.51090969286943</v>
+        <v>84.51090969287033</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>174.1021342228036</v>
       </c>
       <c r="U35" t="n">
-        <v>225.8139733729758</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>324.1460461027425</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3427,7 @@
         <v>142.1518984839573</v>
       </c>
       <c r="D37" t="n">
-        <v>123.5205504035411</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E37" t="n">
         <v>121.3390400318986</v>
@@ -3439,7 +3439,7 @@
         <v>140.4471302624964</v>
       </c>
       <c r="H37" t="n">
-        <v>115.3590671772834</v>
+        <v>115.3590671772827</v>
       </c>
       <c r="I37" t="n">
         <v>56.70965412973848</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.6321607555318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>329.5881190060124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>356.8354474575913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>384.7483533980871</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>258.4681693898738</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.8072150796976</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>381.7811231270409</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>384.748353398087</v>
+        <v>409.7415951048069</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>258.4681693898738</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.51090969287033</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>361.143016041383</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.6321607555309</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>258.4681693898738</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081962</v>
+        <v>59.51766798614908</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>174.1021342228036</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9088959876463</v>
+        <v>250.8072150796967</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.143016041383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>123.5205504035414</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
         <v>121.3390400318986</v>
@@ -4153,7 +4153,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.70965412973848</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S46" t="n">
         <v>156.2435657437884</v>
@@ -4195,7 +4195,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>261.4280757219204</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X46" t="n">
         <v>200.6147327743666</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.687769479477</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="C2" t="n">
-        <v>119.687769479477</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="D2" t="n">
-        <v>119.687769479477</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="E2" t="n">
-        <v>119.687769479477</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="F2" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G2" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H2" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I2" t="n">
         <v>3.078485107422247</v>
@@ -4343,19 +4343,19 @@
         <v>117.3672447204732</v>
       </c>
       <c r="O2" t="n">
-        <v>148.7634570536217</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="P2" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R2" t="n">
-        <v>119.687769479477</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S2" t="n">
-        <v>119.687769479477</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T2" t="n">
         <v>119.687769479477</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="G3" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="H3" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="I3" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J3" t="n">
-        <v>3.078485107422247</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="K3" t="n">
-        <v>3.078485107422247</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="L3" t="n">
-        <v>41.17473831177255</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="M3" t="n">
+        <v>39.63549575806142</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39.63549575806142</v>
+      </c>
+      <c r="O3" t="n">
         <v>77.73174896241173</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>115.828002166762</v>
-      </c>
-      <c r="O3" t="n">
-        <v>153.9242553711123</v>
-      </c>
-      <c r="P3" t="n">
-        <v>153.9242553711123</v>
       </c>
       <c r="Q3" t="n">
         <v>153.9242553711123</v>
@@ -4434,25 +4434,25 @@
         <v>153.9242553711123</v>
       </c>
       <c r="S3" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="T3" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="U3" t="n">
         <v>115.0544939137607</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>115.0544939137607</v>
       </c>
-      <c r="U3" t="n">
-        <v>80.81800802212544</v>
-      </c>
-      <c r="V3" t="n">
-        <v>80.81800802212544</v>
-      </c>
       <c r="W3" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X3" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.16156656773741</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="C4" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="D4" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="E4" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K4" t="n">
         <v>3.078485107422247</v>
@@ -4507,31 +4507,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.9242553711123</v>
+        <v>119.687769479477</v>
       </c>
       <c r="R4" t="n">
-        <v>153.9242553711123</v>
+        <v>119.687769479477</v>
       </c>
       <c r="S4" t="n">
-        <v>115.0544939137607</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="T4" t="n">
-        <v>115.0544939137607</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="U4" t="n">
-        <v>76.18473245640914</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="V4" t="n">
-        <v>76.18473245640914</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="W4" t="n">
-        <v>76.18473245640914</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="X4" t="n">
-        <v>37.31497099905754</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.31497099905754</v>
+        <v>80.81800802212544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.9871041460816</v>
+        <v>65.98953563408217</v>
       </c>
       <c r="C5" t="n">
-        <v>84.28283342585573</v>
+        <v>65.98953563408217</v>
       </c>
       <c r="D5" t="n">
-        <v>84.28283342585573</v>
+        <v>65.98953563408217</v>
       </c>
       <c r="E5" t="n">
-        <v>84.28283342585573</v>
+        <v>65.98953563408217</v>
       </c>
       <c r="F5" t="n">
-        <v>43.74664959272004</v>
+        <v>59.0440348848787</v>
       </c>
       <c r="G5" t="n">
-        <v>3.210465759584347</v>
+        <v>43.7466495927193</v>
       </c>
       <c r="H5" t="n">
-        <v>3.210465759584347</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="I5" t="n">
-        <v>3.210465759584347</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="J5" t="n">
-        <v>3.210465759584347</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="K5" t="n">
-        <v>42.93997953444064</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="L5" t="n">
-        <v>82.66949330929694</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="M5" t="n">
-        <v>122.3990070841532</v>
+        <v>34.29907819878365</v>
       </c>
       <c r="N5" t="n">
-        <v>160.5232879792173</v>
+        <v>74.02859197363927</v>
       </c>
       <c r="O5" t="n">
-        <v>160.5232879792173</v>
+        <v>113.7581057484949</v>
       </c>
       <c r="P5" t="n">
-        <v>160.5232879792173</v>
+        <v>153.4876195233505</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.5232879792173</v>
+        <v>160.5232879792146</v>
       </c>
       <c r="R5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="S5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="T5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="U5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="V5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="W5" t="n">
-        <v>119.9871041460816</v>
+        <v>147.0619033003522</v>
       </c>
       <c r="X5" t="n">
-        <v>119.9871041460816</v>
+        <v>106.5257194672172</v>
       </c>
       <c r="Y5" t="n">
-        <v>119.9871041460816</v>
+        <v>106.5257194672172</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.91473647981026</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="C6" t="n">
-        <v>38.91473647981026</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="D6" t="n">
-        <v>38.91473647981026</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="E6" t="n">
-        <v>3.210465759584347</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="F6" t="n">
-        <v>3.210465759584347</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="G6" t="n">
-        <v>3.210465759584347</v>
+        <v>84.28283342585431</v>
       </c>
       <c r="H6" t="n">
-        <v>3.210465759584347</v>
+        <v>43.7466495927193</v>
       </c>
       <c r="I6" t="n">
-        <v>3.210465759584347</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="J6" t="n">
-        <v>10.3947247710921</v>
+        <v>10.39472477109168</v>
       </c>
       <c r="K6" t="n">
-        <v>50.12423854594839</v>
+        <v>50.1242385459473</v>
       </c>
       <c r="L6" t="n">
-        <v>89.85375232080469</v>
+        <v>50.1242385459473</v>
       </c>
       <c r="M6" t="n">
-        <v>120.7937742043611</v>
+        <v>50.1242385459473</v>
       </c>
       <c r="N6" t="n">
-        <v>120.7937742043611</v>
+        <v>89.85375232080293</v>
       </c>
       <c r="O6" t="n">
-        <v>120.7937742043611</v>
+        <v>89.85375232080293</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7937742043611</v>
+        <v>120.793774204359</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.5232879792173</v>
+        <v>160.5232879792146</v>
       </c>
       <c r="R6" t="n">
-        <v>119.9871041460816</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="S6" t="n">
-        <v>119.9871041460816</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="T6" t="n">
-        <v>79.45092031294595</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="U6" t="n">
-        <v>79.45092031294595</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="V6" t="n">
-        <v>79.45092031294595</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="W6" t="n">
-        <v>79.45092031294595</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="X6" t="n">
-        <v>38.91473647981026</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.91473647981026</v>
+        <v>119.9871041460796</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="C7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="D7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="E7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="F7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="G7" t="n">
-        <v>79.45092031294595</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="H7" t="n">
-        <v>38.91473647981026</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="I7" t="n">
-        <v>38.91473647981026</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="J7" t="n">
-        <v>17.37036719938533</v>
+        <v>17.37036719938566</v>
       </c>
       <c r="K7" t="n">
-        <v>3.210465759584347</v>
+        <v>3.210465759584292</v>
       </c>
       <c r="L7" t="n">
-        <v>40.97768559835315</v>
+        <v>40.97768559835262</v>
       </c>
       <c r="M7" t="n">
-        <v>80.70719937320945</v>
+        <v>80.70719937320824</v>
       </c>
       <c r="N7" t="n">
-        <v>120.4367131480658</v>
+        <v>120.4367131480639</v>
       </c>
       <c r="O7" t="n">
-        <v>154.7139082391994</v>
+        <v>154.713908239197</v>
       </c>
       <c r="P7" t="n">
-        <v>160.5232879792173</v>
+        <v>160.5232879792146</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.9871041460816</v>
+        <v>119.9871041460796</v>
       </c>
       <c r="R7" t="n">
-        <v>119.9871041460816</v>
+        <v>98.44273486565567</v>
       </c>
       <c r="S7" t="n">
-        <v>119.9871041460816</v>
+        <v>98.44273486565567</v>
       </c>
       <c r="T7" t="n">
-        <v>119.9871041460816</v>
+        <v>98.44273486565567</v>
       </c>
       <c r="U7" t="n">
-        <v>119.9871041460816</v>
+        <v>98.44273486565567</v>
       </c>
       <c r="V7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="W7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="X7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.9871041460816</v>
+        <v>57.90655103252067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C8" t="n">
-        <v>41.00642392276842</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D8" t="n">
-        <v>41.00642392276842</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E8" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F8" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G8" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917596</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
         <v>1011.026904601763</v>
@@ -4829,25 +4829,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T8" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U8" t="n">
-        <v>840.1393936243026</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V8" t="n">
-        <v>573.7617370571245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W8" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X8" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y8" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H9" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M9" t="n">
-        <v>438.3365024519936</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N9" t="n">
-        <v>648.3904695545987</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q9" t="n">
         <v>1054.855520006025</v>
@@ -4914,19 +4914,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U9" t="n">
-        <v>808.3837902496284</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V9" t="n">
-        <v>573.2316820178858</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W9" t="n">
-        <v>573.2316820178858</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X9" t="n">
-        <v>365.3801818123529</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.619883047399</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.9997464279937</v>
+        <v>445.627441442766</v>
       </c>
       <c r="C10" t="n">
-        <v>776.9997464279937</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D10" t="n">
-        <v>776.9997464279937</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0866528456006</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F10" t="n">
-        <v>482.1967053476902</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G10" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H10" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J10" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
         <v>739.1822330227046</v>
@@ -4987,25 +4987,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U10" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V10" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W10" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X10" t="n">
-        <v>997.7923255715239</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.9997464279937</v>
+        <v>627.2759062730057</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.901740067214</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>766.8131100650335</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>355.8272052754259</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>355.8272052754259</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W11" t="n">
-        <v>2377.041072043026</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X11" t="n">
-        <v>2377.041072043026</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.901740067214</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.3667606649364</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C13" t="n">
-        <v>478.4305777370295</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D13" t="n">
-        <v>478.4305777370295</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1822.873050066515</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1601.106434636041</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1601.106434636041</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1346.421946430154</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W13" t="n">
-        <v>1057.004776393193</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0152254951761</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y13" t="n">
-        <v>829.0152254951761</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,19 +5270,19 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957688</v>
@@ -5291,37 +5291,37 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>803.582242953727</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>634.6460600258201</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F16" t="n">
         <v>484.5294206134844</v>
@@ -5431,7 +5431,7 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156345</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.346239107599</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1888.270025422326</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V16" t="n">
-        <v>1888.270025422326</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1206.023286927497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>985.2307077839667</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469786</v>
       </c>
       <c r="C17" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D17" t="n">
         <v>1575.48210440131</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042408</v>
       </c>
       <c r="F17" t="n">
-        <v>785.9650214921443</v>
+        <v>785.9650214921435</v>
       </c>
       <c r="G17" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H17" t="n">
         <v>92.81162322608053</v>
@@ -5552,13 +5552,13 @@
         <v>3783.912682083543</v>
       </c>
       <c r="W17" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052771</v>
       </c>
       <c r="X17" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031034</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294565</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.56231032196</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721296</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>993.9831749975601</v>
+        <v>1072.985523358631</v>
       </c>
       <c r="C19" t="n">
-        <v>828.675529308996</v>
+        <v>907.6778776700671</v>
       </c>
       <c r="D19" t="n">
-        <v>682.1874271360032</v>
+        <v>761.1897754970742</v>
       </c>
       <c r="E19" t="n">
-        <v>537.902870792953</v>
+        <v>616.9052191540238</v>
       </c>
       <c r="F19" t="n">
-        <v>394.6414605343855</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="G19" t="n">
-        <v>231.0558029483072</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I19" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K19" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L19" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M19" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N19" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O19" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P19" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q19" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R19" t="n">
-        <v>2392.595601394252</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S19" t="n">
-        <v>2213.053948372525</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="T19" t="n">
-        <v>2213.053948372525</v>
+        <v>2229.375090276552</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.606271926595</v>
+        <v>2229.375090276552</v>
       </c>
       <c r="V19" t="n">
-        <v>1676.550320960051</v>
+        <v>1978.319139310008</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.528158151319</v>
+        <v>1692.53050651239</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.167144492644</v>
+        <v>1468.169492853716</v>
       </c>
       <c r="Y19" t="n">
-        <v>1172.003102588457</v>
+        <v>1251.005450949528</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469786</v>
       </c>
       <c r="C20" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.48210440131</v>
       </c>
       <c r="E20" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042408</v>
       </c>
       <c r="F20" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921435</v>
       </c>
       <c r="G20" t="n">
-        <v>375.6104516478935</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T20" t="n">
         <v>4361.16182422888</v>
@@ -5786,16 +5786,16 @@
         <v>4111.347032187771</v>
       </c>
       <c r="V20" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083543</v>
       </c>
       <c r="W20" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052771</v>
       </c>
       <c r="X20" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031034</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294565</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J21" t="n">
-        <v>92.8116232260805</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K21" t="n">
-        <v>92.8116232260805</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L21" t="n">
-        <v>372.2013186925058</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M21" t="n">
-        <v>964.2196729446335</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.31563634397</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1072.98552335863</v>
+        <v>764.4164674114995</v>
       </c>
       <c r="C22" t="n">
-        <v>907.6778776700663</v>
+        <v>764.4164674114995</v>
       </c>
       <c r="D22" t="n">
-        <v>761.1897754970735</v>
+        <v>617.9283652385066</v>
       </c>
       <c r="E22" t="n">
-        <v>616.9052191540233</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="F22" t="n">
-        <v>473.6438088954558</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0581513093775</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H22" t="n">
-        <v>171.8139715871508</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K22" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L22" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M22" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N22" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O22" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P22" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q22" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R22" t="n">
-        <v>2392.595601394252</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S22" t="n">
-        <v>2213.053948372525</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T22" t="n">
-        <v>1997.00370332625</v>
+        <v>2206.253710775351</v>
       </c>
       <c r="U22" t="n">
-        <v>1711.55602688032</v>
+        <v>1920.806034329421</v>
       </c>
       <c r="V22" t="n">
-        <v>1692.530506512389</v>
+        <v>1669.750083362876</v>
       </c>
       <c r="W22" t="n">
-        <v>1692.530506512389</v>
+        <v>1383.961450565258</v>
       </c>
       <c r="X22" t="n">
-        <v>1468.169492853714</v>
+        <v>1159.600436906584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1251.005450949527</v>
+        <v>942.4363950023965</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2295.453245469786</v>
       </c>
       <c r="C23" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D23" t="n">
         <v>1575.48210440131</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042408</v>
       </c>
       <c r="F23" t="n">
-        <v>785.965021492144</v>
+        <v>785.9650214921435</v>
       </c>
       <c r="G23" t="n">
-        <v>375.6104516478933</v>
+        <v>375.6104516478927</v>
       </c>
       <c r="H23" t="n">
-        <v>92.81162322608031</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="I23" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J23" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K23" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L23" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M23" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N23" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O23" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P23" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q23" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R23" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S23" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T23" t="n">
-        <v>4361.161824228879</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U23" t="n">
-        <v>4111.34703218777</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V23" t="n">
         <v>3783.912682083543</v>
@@ -6060,34 +6060,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H24" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I24" t="n">
-        <v>92.8116232260805</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J24" t="n">
-        <v>240.4596049779265</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K24" t="n">
-        <v>570.9683475412853</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L24" t="n">
-        <v>1061.700680385037</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M24" t="n">
-        <v>1653.719034637164</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N24" t="n">
-        <v>1653.719034637164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O24" t="n">
-        <v>2200.595509637359</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P24" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R24" t="n">
         <v>2552.77562977024</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.1664599623996</v>
+        <v>555.1664599623978</v>
       </c>
       <c r="C25" t="n">
-        <v>389.8588142738355</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="D25" t="n">
-        <v>389.8588142738355</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="E25" t="n">
-        <v>389.8588142738355</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="F25" t="n">
-        <v>389.8588142738355</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0581513093775</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H25" t="n">
-        <v>171.8139715871508</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I25" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J25" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K25" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L25" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M25" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O25" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P25" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q25" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R25" t="n">
-        <v>2392.595601394252</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S25" t="n">
-        <v>2213.053948372525</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T25" t="n">
-        <v>1997.00370332625</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.55602688032</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V25" t="n">
-        <v>1460.500075913776</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W25" t="n">
-        <v>1174.711443116158</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X25" t="n">
-        <v>950.3504294574836</v>
+        <v>950.3504294574821</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.1863875532964</v>
+        <v>733.1863875532947</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2295.453245469786</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C26" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D26" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E26" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G26" t="n">
-        <v>375.6104516478935</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H26" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I26" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J26" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K26" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L26" t="n">
         <v>1461.45766301865</v>
@@ -6239,37 +6239,37 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O26" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P26" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q26" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R26" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S26" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T26" t="n">
-        <v>4361.161824228879</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U26" t="n">
-        <v>4111.34703218777</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V26" t="n">
-        <v>3783.912682083542</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W26" t="n">
-        <v>3434.772564052771</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X26" t="n">
-        <v>3064.935343031034</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y26" t="n">
-        <v>2678.424548294565</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H27" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I27" t="n">
-        <v>92.8116232260805</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J27" t="n">
-        <v>92.8116232260805</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K27" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L27" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M27" t="n">
-        <v>1506.071052885318</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N27" t="n">
-        <v>2128.167016284654</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O27" t="n">
-        <v>2128.167016284654</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P27" t="n">
-        <v>2547.75053471073</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q27" t="n">
         <v>2552.77562977024</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.1664599623996</v>
+        <v>555.1664599623978</v>
       </c>
       <c r="C28" t="n">
-        <v>394.6414605343855</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="D28" t="n">
-        <v>394.6414605343855</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="E28" t="n">
-        <v>394.6414605343855</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="F28" t="n">
-        <v>394.6414605343855</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="G28" t="n">
-        <v>231.0558029483072</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H28" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I28" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J28" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K28" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L28" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M28" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N28" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O28" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P28" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q28" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R28" t="n">
-        <v>2392.595601394252</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S28" t="n">
-        <v>2213.053948372525</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T28" t="n">
-        <v>1997.00370332625</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.55602688032</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V28" t="n">
-        <v>1460.500075913776</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W28" t="n">
-        <v>1174.711443116158</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X28" t="n">
-        <v>950.3504294574836</v>
+        <v>950.3504294574821</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.1863875532964</v>
+        <v>733.1863875532947</v>
       </c>
     </row>
     <row r="29">
@@ -6446,55 +6446,55 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E29" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G29" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H29" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I29" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J29" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251953</v>
       </c>
       <c r="K29" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L29" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M29" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N29" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O29" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P29" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q29" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R29" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S29" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T29" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U29" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V29" t="n">
         <v>3783.912682083544</v>
@@ -6534,34 +6534,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H30" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I30" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J30" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="K30" t="n">
-        <v>570.9683475412853</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="L30" t="n">
-        <v>919.0777936927001</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M30" t="n">
-        <v>1511.096147944828</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N30" t="n">
-        <v>2133.192111344164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O30" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P30" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q30" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R30" t="n">
         <v>2552.77562977024</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>555.1664599623996</v>
+        <v>555.1664599623978</v>
       </c>
       <c r="C31" t="n">
-        <v>389.8588142738355</v>
+        <v>389.8588142738336</v>
       </c>
       <c r="D31" t="n">
-        <v>389.8588142738355</v>
+        <v>389.8588142738336</v>
       </c>
       <c r="E31" t="n">
-        <v>389.8588142738355</v>
+        <v>389.8588142738336</v>
       </c>
       <c r="F31" t="n">
-        <v>389.8588142738355</v>
+        <v>389.8588142738336</v>
       </c>
       <c r="G31" t="n">
-        <v>226.2731566877573</v>
+        <v>226.2731566877551</v>
       </c>
       <c r="H31" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I31" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J31" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K31" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L31" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M31" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N31" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O31" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P31" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q31" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R31" t="n">
-        <v>2392.595601394252</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S31" t="n">
-        <v>2213.053948372525</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T31" t="n">
-        <v>1997.00370332625</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.55602688032</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.500075913776</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W31" t="n">
-        <v>1174.711443116158</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X31" t="n">
-        <v>950.3504294574836</v>
+        <v>950.3504294574821</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.1863875532964</v>
+        <v>733.1863875532947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2291.876062224359</v>
+        <v>2291.77335423653</v>
       </c>
       <c r="C32" t="n">
         <v>1922.913545283947</v>
@@ -6689,28 +6689,28 @@
         <v>767.8736892893446</v>
       </c>
       <c r="G32" t="n">
-        <v>379.2389888872365</v>
+        <v>353.890582205751</v>
       </c>
       <c r="H32" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O32" t="n">
         <v>3602.609239333933</v>
@@ -6728,22 +6728,22 @@
         <v>4555.113898070876</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.007457738022</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U32" t="n">
-        <v>4100.564128457571</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V32" t="n">
-        <v>3769.501241114001</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W32" t="n">
-        <v>3416.732585843887</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X32" t="n">
-        <v>3043.266827582807</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y32" t="n">
-        <v>2653.127495606995</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J33" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K33" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L33" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M33" t="n">
-        <v>1586.31563634397</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N33" t="n">
-        <v>1586.31563634397</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O33" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
         <v>2552.77562977024</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.9464372636322</v>
+        <v>920.9464372636324</v>
       </c>
       <c r="C34" t="n">
-        <v>777.3586610172115</v>
+        <v>777.3586610172109</v>
       </c>
       <c r="D34" t="n">
-        <v>652.5904282863611</v>
+        <v>652.5904282863606</v>
       </c>
       <c r="E34" t="n">
-        <v>530.0257413854533</v>
+        <v>530.0257413854529</v>
       </c>
       <c r="F34" t="n">
-        <v>408.4842005690283</v>
+        <v>408.484200569028</v>
       </c>
       <c r="G34" t="n">
-        <v>266.6184124250925</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H34" t="n">
         <v>150.0941021450083</v>
@@ -6859,28 +6859,28 @@
         <v>196.6377195041583</v>
       </c>
       <c r="K34" t="n">
-        <v>481.1104198632458</v>
+        <v>481.1104198632456</v>
       </c>
       <c r="L34" t="n">
-        <v>893.7162113349038</v>
+        <v>893.7162113349037</v>
       </c>
       <c r="M34" t="n">
-        <v>1337.789776767887</v>
+        <v>1337.789776767886</v>
       </c>
       <c r="N34" t="n">
-        <v>1777.329615948118</v>
+        <v>1777.329615948117</v>
       </c>
       <c r="O34" t="n">
         <v>2169.196046351671</v>
       </c>
       <c r="P34" t="n">
-        <v>2484.5704545764</v>
+        <v>2484.570454576399</v>
       </c>
       <c r="Q34" t="n">
-        <v>2627.127561518359</v>
+        <v>2627.127561518358</v>
       </c>
       <c r="R34" t="n">
-        <v>2584.616623158345</v>
+        <v>2584.616623158346</v>
       </c>
       <c r="S34" t="n">
         <v>2426.794839578761</v>
@@ -6889,16 +6889,16 @@
         <v>2232.464463974628</v>
       </c>
       <c r="U34" t="n">
-        <v>1968.73665697084</v>
+        <v>1968.736656970841</v>
       </c>
       <c r="V34" t="n">
         <v>1739.400575446439</v>
       </c>
       <c r="W34" t="n">
-        <v>1475.331812090963</v>
+        <v>1475.331812090964</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.690667874431</v>
+        <v>1272.690667874432</v>
       </c>
       <c r="Y34" t="n">
         <v>1077.246495412387</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2291.876062224359</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C35" t="n">
-        <v>1922.913545283947</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D35" t="n">
         <v>1589.996253358682</v>
@@ -6929,43 +6929,43 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L35" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S35" t="n">
         <v>4555.216606058703</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.007457738022</v>
+        <v>4379.355864419507</v>
       </c>
       <c r="U35" t="n">
         <v>4125.912535139057</v>
@@ -6974,13 +6974,13 @@
         <v>3794.849647795486</v>
       </c>
       <c r="W35" t="n">
-        <v>3442.080992525372</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X35" t="n">
-        <v>3068.615234264292</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.47590228848</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K36" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L36" t="n">
-        <v>919.0777936927001</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M36" t="n">
-        <v>1511.096147944828</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N36" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
         <v>2552.77562977024</v>
@@ -7075,22 +7075,22 @@
         <v>777.3586610172107</v>
       </c>
       <c r="D37" t="n">
-        <v>652.5904282863611</v>
+        <v>652.5904282863603</v>
       </c>
       <c r="E37" t="n">
-        <v>530.0257413854533</v>
+        <v>530.0257413854525</v>
       </c>
       <c r="F37" t="n">
-        <v>408.4842005690283</v>
+        <v>408.4842005690276</v>
       </c>
       <c r="G37" t="n">
-        <v>266.6184124250925</v>
+        <v>266.6184124250918</v>
       </c>
       <c r="H37" t="n">
         <v>150.0941021450083</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
         <v>196.6377195041583</v>
@@ -7154,16 +7154,16 @@
         <v>1897.565138602462</v>
       </c>
       <c r="D38" t="n">
-        <v>1564.647846677196</v>
+        <v>1539.299439995711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.511187397467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.22209597083</v>
+        <v>742.5252826078593</v>
       </c>
       <c r="G38" t="n">
-        <v>379.2389888872365</v>
+        <v>353.8905822057511</v>
       </c>
       <c r="H38" t="n">
         <v>92.81162322608056</v>
@@ -7205,19 +7205,19 @@
         <v>4353.904749750195</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.564128457571</v>
       </c>
       <c r="V38" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.501241114001</v>
       </c>
       <c r="W38" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.732585843887</v>
       </c>
       <c r="X38" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.266827582807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.127495606995</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J39" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K39" t="n">
-        <v>428.3454608489487</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L39" t="n">
-        <v>919.0777936927001</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M39" t="n">
-        <v>1511.096147944828</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N39" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
         <v>2552.77562977024</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.9464372636326</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C40" t="n">
-        <v>777.358661017211</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D40" t="n">
-        <v>652.5904282863607</v>
+        <v>652.590428286361</v>
       </c>
       <c r="E40" t="n">
-        <v>530.025741385453</v>
+        <v>530.0257413854532</v>
       </c>
       <c r="F40" t="n">
-        <v>408.484200569028</v>
+        <v>408.4842005690282</v>
       </c>
       <c r="G40" t="n">
-        <v>266.6184124250925</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H40" t="n">
-        <v>150.0941021450083</v>
+        <v>150.0941021450082</v>
       </c>
       <c r="I40" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6377195041583</v>
+        <v>196.6377195041582</v>
       </c>
       <c r="K40" t="n">
         <v>481.1104198632457</v>
@@ -7345,7 +7345,7 @@
         <v>1777.329615948118</v>
       </c>
       <c r="O40" t="n">
-        <v>2169.196046351672</v>
+        <v>2169.196046351671</v>
       </c>
       <c r="P40" t="n">
         <v>2484.5704545764</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2266.527655542873</v>
+        <v>2291.773354236529</v>
       </c>
       <c r="C41" t="n">
-        <v>1897.565138602462</v>
+        <v>1922.810837296118</v>
       </c>
       <c r="D41" t="n">
-        <v>1539.299439995711</v>
+        <v>1564.545138689367</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.511187397467</v>
+        <v>1178.756886091123</v>
       </c>
       <c r="F41" t="n">
-        <v>767.8736892893446</v>
+        <v>767.7709813015156</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872365</v>
+        <v>353.890582205751</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.216606058703</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T41" t="n">
-        <v>4354.007457738022</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.564128457571</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V41" t="n">
-        <v>3769.501241114001</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W41" t="n">
-        <v>3416.732585843887</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.266827582807</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y41" t="n">
-        <v>2653.127495606995</v>
+        <v>2678.373194300651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J42" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K42" t="n">
-        <v>428.3454608489487</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L42" t="n">
-        <v>919.0777936927001</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M42" t="n">
-        <v>1511.096147944828</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N42" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O42" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
         <v>2552.77562977024</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.9464372636324</v>
+        <v>920.9464372636329</v>
       </c>
       <c r="C43" t="n">
-        <v>777.3586610172109</v>
+        <v>777.3586610172114</v>
       </c>
       <c r="D43" t="n">
-        <v>652.5904282863606</v>
+        <v>652.5904282863611</v>
       </c>
       <c r="E43" t="n">
-        <v>530.0257413854529</v>
+        <v>530.0257413854533</v>
       </c>
       <c r="F43" t="n">
-        <v>408.484200569028</v>
+        <v>408.4842005690284</v>
       </c>
       <c r="G43" t="n">
-        <v>266.6184124250922</v>
+        <v>266.6184124250926</v>
       </c>
       <c r="H43" t="n">
-        <v>150.0941021450083</v>
+        <v>150.0941021450084</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6377195041586</v>
+        <v>196.6377195041583</v>
       </c>
       <c r="K43" t="n">
-        <v>481.1104198632461</v>
+        <v>481.1104198632458</v>
       </c>
       <c r="L43" t="n">
-        <v>893.7162113349042</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M43" t="n">
         <v>1337.789776767887</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2291.876062224359</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C44" t="n">
-        <v>1922.913545283947</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D44" t="n">
-        <v>1564.647846677196</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E44" t="n">
-        <v>1178.859594078952</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F44" t="n">
-        <v>767.8736892893446</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G44" t="n">
-        <v>353.890582205751</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
         <v>3602.609239333933</v>
@@ -7667,31 +7667,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S44" t="n">
-        <v>4555.113898070876</v>
+        <v>4580.46230475236</v>
       </c>
       <c r="T44" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.601563113165</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.164119594979</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.373194300652</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K45" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M45" t="n">
-        <v>1511.096147944828</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N45" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O45" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
         <v>2552.77562977024</v>
@@ -7786,52 +7786,52 @@
         <v>777.358661017211</v>
       </c>
       <c r="D46" t="n">
-        <v>652.5904282863611</v>
+        <v>652.5904282863607</v>
       </c>
       <c r="E46" t="n">
-        <v>530.0257413854533</v>
+        <v>530.025741385453</v>
       </c>
       <c r="F46" t="n">
-        <v>408.4842005690283</v>
+        <v>408.484200569028</v>
       </c>
       <c r="G46" t="n">
-        <v>266.6184124250925</v>
+        <v>266.6184124250922</v>
       </c>
       <c r="H46" t="n">
         <v>150.0941021450083</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
         <v>196.6377195041583</v>
       </c>
       <c r="K46" t="n">
-        <v>481.1104198632458</v>
+        <v>481.1104198632456</v>
       </c>
       <c r="L46" t="n">
-        <v>893.7162113349038</v>
+        <v>893.7162113349036</v>
       </c>
       <c r="M46" t="n">
         <v>1337.789776767887</v>
       </c>
       <c r="N46" t="n">
-        <v>1777.329615948118</v>
+        <v>1777.329615948117</v>
       </c>
       <c r="O46" t="n">
         <v>2169.196046351671</v>
       </c>
       <c r="P46" t="n">
-        <v>2484.5704545764</v>
+        <v>2484.570454576399</v>
       </c>
       <c r="Q46" t="n">
-        <v>2627.127561518359</v>
+        <v>2627.127561518358</v>
       </c>
       <c r="R46" t="n">
         <v>2584.616623158345</v>
       </c>
       <c r="S46" t="n">
-        <v>2426.794839578761</v>
+        <v>2426.79483957876</v>
       </c>
       <c r="T46" t="n">
         <v>2232.464463974628</v>
@@ -7843,10 +7843,10 @@
         <v>1739.400575446439</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.331812090963</v>
+        <v>1475.331812090964</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.690667874431</v>
+        <v>1272.690667874432</v>
       </c>
       <c r="Y46" t="n">
         <v>1077.246495412387</v>
@@ -7991,13 +7991,13 @@
         <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
-        <v>238.0901966419337</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>247.9136367056385</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>160.6795236990645</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>159.973720214579</v>
+        <v>153.6033966620569</v>
       </c>
       <c r="N3" t="n">
-        <v>150.2310236677773</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>163.1546825303321</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>168.8471891366353</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>167.6081767425016</v>
+        <v>167.6081767425022</v>
       </c>
       <c r="K5" t="n">
-        <v>240.0810024628693</v>
+        <v>199.950180468066</v>
       </c>
       <c r="L5" t="n">
-        <v>250.9121947426354</v>
+        <v>210.7813727478322</v>
       </c>
       <c r="M5" t="n">
-        <v>242.6763816476831</v>
+        <v>233.9481984803541</v>
       </c>
       <c r="N5" t="n">
-        <v>239.6719207005328</v>
+        <v>241.2933680538588</v>
       </c>
       <c r="O5" t="n">
-        <v>203.422048801353</v>
+        <v>243.5528707961579</v>
       </c>
       <c r="P5" t="n">
-        <v>208.4655081336493</v>
+        <v>248.596330128454</v>
       </c>
       <c r="Q5" t="n">
-        <v>205.2082548458997</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>164.2931437978716</v>
+        <v>164.2931437978715</v>
       </c>
       <c r="L6" t="n">
-        <v>160.2919406299682</v>
+        <v>120.1611186351647</v>
       </c>
       <c r="M6" t="n">
-        <v>151.9225130773499</v>
+        <v>120.6699657202232</v>
       </c>
       <c r="N6" t="n">
-        <v>109.309553864564</v>
+        <v>149.4403758593686</v>
       </c>
       <c r="O6" t="n">
-        <v>122.4411240057595</v>
+        <v>122.4411240057604</v>
       </c>
       <c r="P6" t="n">
-        <v>117.7981463554797</v>
+        <v>149.0506937126078</v>
       </c>
       <c r="Q6" t="n">
-        <v>169.2991939526439</v>
+        <v>169.2991939526437</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>167.9239565814959</v>
+        <v>167.9239565814957</v>
       </c>
       <c r="N7" t="n">
-        <v>156.9484266182317</v>
+        <v>156.9484266182316</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8538,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>5.26288739959432</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.73247738167446</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.494502429643703</v>
       </c>
     </row>
     <row r="5">
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.76275620543635</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>192.8272672155856</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>76.4642636387356</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>175.3238949597309</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>128.6633932852477</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.90878045279464</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.21232487745957</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T19" t="n">
-        <v>213.8897425958124</v>
+        <v>52.30143658929089</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>220.5388052889967</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>143.5690076504774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.7101262926269</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>282.9307464696416</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.734819797946727</v>
       </c>
       <c r="D25" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E25" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F25" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G25" t="n">
-        <v>82.94714467540399</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.734819797944425</v>
+        <v>4.734819797946727</v>
       </c>
       <c r="D28" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E28" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>78.21232487745957</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E31" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F31" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.734819797944454</v>
+        <v>4.734819797946756</v>
       </c>
       <c r="I31" t="n">
-        <v>78.21232487745957</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1284048.16015074</v>
+        <v>1284048.160150741</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179700.4906284404</v>
+        <v>179700.4906284406</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26323,7 +26323,7 @@
         <v>153448.6945369144</v>
       </c>
       <c r="F2" t="n">
-        <v>180602.948618557</v>
+        <v>180602.9486185571</v>
       </c>
       <c r="G2" t="n">
         <v>181966.1375065477</v>
@@ -26332,28 +26332,28 @@
         <v>181966.1375065476</v>
       </c>
       <c r="I2" t="n">
-        <v>181966.1375065476</v>
+        <v>181966.1375065475</v>
       </c>
       <c r="J2" t="n">
         <v>181966.1375065476</v>
       </c>
       <c r="K2" t="n">
-        <v>181966.1375065477</v>
+        <v>181966.1375065476</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>46642.83166352184</v>
       </c>
       <c r="C3" t="n">
-        <v>4505.353733895181</v>
+        <v>4505.353733893315</v>
       </c>
       <c r="D3" t="n">
-        <v>561608.2397150821</v>
+        <v>561608.2397150837</v>
       </c>
       <c r="E3" t="n">
-        <v>551695.2512473338</v>
+        <v>551695.2512473336</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975056</v>
+        <v>306241.868697506</v>
       </c>
       <c r="G3" t="n">
-        <v>2873.801493559554</v>
+        <v>2873.801493559451</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10068.3394680798</v>
+        <v>10068.33946807986</v>
       </c>
       <c r="K3" t="n">
-        <v>424.5949560707465</v>
+        <v>424.5949560705105</v>
       </c>
       <c r="L3" t="n">
-        <v>76662.79782571067</v>
+        <v>76662.79782571075</v>
       </c>
       <c r="M3" t="n">
-        <v>141470.0145401777</v>
+        <v>141470.0145401775</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636046</v>
+        <v>80518.24125636058</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384287.6308548701</v>
+        <v>384287.6308548703</v>
       </c>
       <c r="C4" t="n">
-        <v>395925.6461994688</v>
+        <v>395925.6461994693</v>
       </c>
       <c r="D4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="E4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506621</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>11577.70757651861</v>
+        <v>11577.70757651851</v>
       </c>
       <c r="H4" t="n">
-        <v>11577.70757651861</v>
+        <v>11577.70757651852</v>
       </c>
       <c r="I4" t="n">
-        <v>11577.70757651862</v>
+        <v>11577.70757651856</v>
       </c>
       <c r="J4" t="n">
-        <v>11577.70757651862</v>
+        <v>11577.70757651851</v>
       </c>
       <c r="K4" t="n">
-        <v>11577.70757651862</v>
+        <v>11577.70757651854</v>
       </c>
       <c r="L4" t="n">
-        <v>18653.15784945325</v>
+        <v>18653.15784945329</v>
       </c>
       <c r="M4" t="n">
-        <v>18653.1578494533</v>
+        <v>18653.15784945326</v>
       </c>
       <c r="N4" t="n">
-        <v>18653.15784945324</v>
+        <v>18653.15784945323</v>
       </c>
       <c r="O4" t="n">
-        <v>18653.15784945327</v>
+        <v>18653.15784945333</v>
       </c>
       <c r="P4" t="n">
         <v>18653.15784945328</v>
@@ -26470,13 +26470,13 @@
         <v>36730.71216531784</v>
       </c>
       <c r="C5" t="n">
-        <v>36926.11670535594</v>
+        <v>36926.11670535587</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287960.6840552693</v>
+        <v>-288016.6163618363</v>
       </c>
       <c r="C6" t="n">
-        <v>-252622.7184192563</v>
+        <v>-252622.7184192548</v>
       </c>
       <c r="D6" t="n">
-        <v>-686675.512098116</v>
+        <v>-686675.5120981176</v>
       </c>
       <c r="E6" t="n">
-        <v>-480493.4684788673</v>
+        <v>-480841.0874086732</v>
       </c>
       <c r="F6" t="n">
-        <v>-233891.8283982936</v>
+        <v>-233937.7333938596</v>
       </c>
       <c r="G6" t="n">
-        <v>67070.50290042853</v>
+        <v>67039.74444806307</v>
       </c>
       <c r="H6" t="n">
-        <v>69944.30439398807</v>
+        <v>69913.54594162233</v>
       </c>
       <c r="I6" t="n">
-        <v>69944.30439398799</v>
+        <v>69913.54594162224</v>
       </c>
       <c r="J6" t="n">
-        <v>59875.96492590828</v>
+        <v>59845.20647354252</v>
       </c>
       <c r="K6" t="n">
-        <v>69519.70943791735</v>
+        <v>69488.95098555186</v>
       </c>
       <c r="L6" t="n">
-        <v>-12833.39101883124</v>
+        <v>-12833.39101883153</v>
       </c>
       <c r="M6" t="n">
-        <v>-77640.60773329827</v>
+        <v>-77640.60773329801</v>
       </c>
       <c r="N6" t="n">
-        <v>-16688.83444948107</v>
+        <v>-16688.8344494812</v>
       </c>
       <c r="O6" t="n">
-        <v>63829.40680687937</v>
+        <v>63829.40680687936</v>
       </c>
       <c r="P6" t="n">
-        <v>63829.40680687934</v>
+        <v>63829.4068068793</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L2" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M2" t="n">
         <v>25.09492261467052</v>
@@ -26725,7 +26725,7 @@
         <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>39.38361137944231</v>
+        <v>39.38361137944051</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,16 +26790,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1160.145290326006</v>
@@ -26811,25 +26811,25 @@
         <v>1160.145290326006</v>
       </c>
       <c r="J4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="K4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="L4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="M4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="P4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>4.362350660316991</v>
+        <v>4.362350660315187</v>
       </c>
       <c r="D3" t="n">
-        <v>574.6714023900361</v>
+        <v>574.6714023900378</v>
       </c>
       <c r="E3" t="n">
-        <v>475.7216868238202</v>
+        <v>475.7216868238201</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>1.649758152026235</v>
+        <v>1.649758152025546</v>
       </c>
       <c r="D4" t="n">
-        <v>223.5830580067019</v>
+        <v>223.5830580067025</v>
       </c>
       <c r="E4" t="n">
-        <v>567.687575400787</v>
+        <v>567.6875754007865</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.48106384277798</v>
+        <v>38.48106384277821</v>
       </c>
       <c r="K4" t="n">
-        <v>1.649758152026462</v>
+        <v>1.649758152025545</v>
       </c>
       <c r="L4" t="n">
-        <v>223.5830580067021</v>
+        <v>223.5830580067024</v>
       </c>
       <c r="M4" t="n">
-        <v>567.6875754007867</v>
+        <v>567.6875754007863</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="K4" t="n">
-        <v>1.649758152026235</v>
+        <v>1.649758152025546</v>
       </c>
       <c r="L4" t="n">
-        <v>223.5830580067019</v>
+        <v>223.5830580067025</v>
       </c>
       <c r="M4" t="n">
-        <v>567.687575400787</v>
+        <v>567.6875754007865</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>344.2527778207025</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>136.8345808931932</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>107.1311606525604</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>188.5854247372497</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.0521198070892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>73.02686326066636</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>52.90895618996846</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>131.802908778555</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>192.0423052094749</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8701097949304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7657572558497</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>46.97971185038752</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27591,19 +27591,19 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>247.8345207995437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>187.2285915462591</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0901509224511</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>342.6030196686769</v>
       </c>
       <c r="C5" t="n">
-        <v>329.9256637579839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.7452237469071</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>375.0135894444334</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>337.8533451909844</v>
+        <v>297.7225231961808</v>
       </c>
       <c r="I5" t="n">
-        <v>204.372023529377</v>
+        <v>204.3720235293773</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>99.79284558126437</v>
+        <v>126.5968967439954</v>
       </c>
       <c r="S5" t="n">
-        <v>205.4122141317366</v>
+        <v>205.4122141317368</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4027771668911</v>
+        <v>222.4027771668912</v>
       </c>
       <c r="U5" t="n">
         <v>251.3329868217647</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.6002786836654</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>122.2978524423773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2588052443945</v>
+        <v>101.9115772313714</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4173054416141</v>
+        <v>71.28648344681046</v>
       </c>
       <c r="I6" t="n">
-        <v>86.48001634831486</v>
+        <v>46.34919435351135</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>54.76744232116535</v>
+        <v>54.76744232116627</v>
       </c>
       <c r="S6" t="n">
-        <v>170.109684366178</v>
+        <v>170.1096843661781</v>
       </c>
       <c r="T6" t="n">
-        <v>159.6924582202276</v>
+        <v>199.8232802150319</v>
       </c>
       <c r="U6" t="n">
         <v>225.9358089284211</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>165.6421632086731</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>127.7891377365767</v>
+        <v>167.9199597313811</v>
       </c>
       <c r="H7" t="n">
-        <v>121.4649214646173</v>
+        <v>161.5957434594217</v>
       </c>
       <c r="I7" t="n">
-        <v>153.3147210511403</v>
+        <v>153.3147210511404</v>
       </c>
       <c r="J7" t="n">
-        <v>67.00916689465993</v>
+        <v>48.20727048747717</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.08429593859426</v>
+        <v>40.08429593859522</v>
       </c>
       <c r="R7" t="n">
-        <v>174.1000906905675</v>
+        <v>152.7711651029479</v>
       </c>
       <c r="S7" t="n">
         <v>222.7789196269003</v>
@@ -27831,7 +27831,7 @@
         <v>286.3151555586503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.0068213290243</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>174.5968602363849</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H8" t="n">
         <v>314.193632629268</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>191.3468959595997</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.2974427305672</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,10 +27947,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>116.5374382401141</v>
       </c>
     </row>
     <row r="10">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>57.08342813007248</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.2143458795659</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2170928988812</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.907405984275176e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="32">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.1016809079498557</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.09492261467052</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1016809079490031</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="35">
@@ -29989,64 +29989,64 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1016809079492873</v>
+      </c>
+      <c r="T35" t="n">
         <v>25.09492261467052</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.1016809079501826</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>25.09492261467052</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30220,26 +30220,26 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1016809079487757</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>25.09492261467052</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>25.09492261467052</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1016809079487189</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30469,64 +30469,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1016809079507084</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.09492261467054</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>25.09492261467054</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.1016809079492873</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1016809079496852</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1016809079496284</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="C46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="D46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="F46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="G46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="H46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="I46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="J46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="K46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="L46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="M46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="N46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="O46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="P46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="R46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="S46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="T46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="U46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="V46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="W46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="X46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1583260758972554</v>
+        <v>0.1583260758972481</v>
       </c>
       <c r="H5" t="n">
-        <v>1.621456924782767</v>
+        <v>1.621456924782693</v>
       </c>
       <c r="I5" t="n">
-        <v>6.103866041028946</v>
+        <v>6.103866041028666</v>
       </c>
       <c r="J5" t="n">
-        <v>13.43772778418469</v>
+        <v>13.43772778418408</v>
       </c>
       <c r="K5" t="n">
-        <v>20.13967057691552</v>
+        <v>20.1396705769146</v>
       </c>
       <c r="L5" t="n">
-        <v>24.98504222215616</v>
+        <v>24.98504222215501</v>
       </c>
       <c r="M5" t="n">
-        <v>27.80067357439397</v>
+        <v>27.8006735743927</v>
       </c>
       <c r="N5" t="n">
-        <v>28.25051753753705</v>
+        <v>28.25051753753575</v>
       </c>
       <c r="O5" t="n">
-        <v>26.67616262033371</v>
+        <v>26.67616262033249</v>
       </c>
       <c r="P5" t="n">
-        <v>22.76748762162022</v>
+        <v>22.76748762161917</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.09743502854975</v>
+        <v>17.09743502854897</v>
       </c>
       <c r="R5" t="n">
-        <v>9.94545036508098</v>
+        <v>9.945450365080523</v>
       </c>
       <c r="S5" t="n">
-        <v>3.607855454508711</v>
+        <v>3.607855454508546</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6930723972402359</v>
+        <v>0.6930723972402042</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01266608607178043</v>
+        <v>0.01266608607177985</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08471191881615894</v>
+        <v>0.08471191881615506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8181387948823773</v>
+        <v>0.8181387948823398</v>
       </c>
       <c r="I6" t="n">
-        <v>2.916616503100209</v>
+        <v>2.916616503100076</v>
       </c>
       <c r="J6" t="n">
-        <v>8.003418610609122</v>
+        <v>8.003418610608756</v>
       </c>
       <c r="K6" t="n">
-        <v>13.67911717129177</v>
+        <v>13.67911717129114</v>
       </c>
       <c r="L6" t="n">
-        <v>18.3932611447103</v>
+        <v>18.39326114470946</v>
       </c>
       <c r="M6" t="n">
-        <v>21.46406820179606</v>
+        <v>21.46406820179508</v>
       </c>
       <c r="N6" t="n">
-        <v>22.03215821876934</v>
+        <v>22.03215821876833</v>
       </c>
       <c r="O6" t="n">
-        <v>20.15512043868497</v>
+        <v>20.15512043868405</v>
       </c>
       <c r="P6" t="n">
-        <v>16.17626105885056</v>
+        <v>16.17626105884982</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.81340212818197</v>
+        <v>10.81340212818148</v>
       </c>
       <c r="R6" t="n">
-        <v>5.25956983667345</v>
+        <v>5.259569836673208</v>
       </c>
       <c r="S6" t="n">
-        <v>1.573486737659793</v>
+        <v>1.573486737659721</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3414484797896932</v>
+        <v>0.3414484797896775</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00557315255369467</v>
+        <v>0.005573152553694414</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07101962707768285</v>
+        <v>0.0710196270776796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6314290480179444</v>
+        <v>0.6314290480179154</v>
       </c>
       <c r="I7" t="n">
-        <v>2.135753876117954</v>
+        <v>2.135753876117856</v>
       </c>
       <c r="J7" t="n">
-        <v>5.021087634392178</v>
+        <v>5.021087634391947</v>
       </c>
       <c r="K7" t="n">
-        <v>8.251189400479879</v>
+        <v>8.2511894004795</v>
       </c>
       <c r="L7" t="n">
-        <v>10.55868164753114</v>
+        <v>10.55868164753066</v>
       </c>
       <c r="M7" t="n">
-        <v>11.1326493609135</v>
+        <v>11.13264936091299</v>
       </c>
       <c r="N7" t="n">
-        <v>10.86793984180578</v>
+        <v>10.86793984180529</v>
       </c>
       <c r="O7" t="n">
-        <v>10.03830147094376</v>
+        <v>10.0383014709433</v>
       </c>
       <c r="P7" t="n">
-        <v>8.589501078559021</v>
+        <v>8.589501078558627</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.946925318295789</v>
+        <v>5.946925318295516</v>
       </c>
       <c r="R7" t="n">
-        <v>3.193300686601994</v>
+        <v>3.193300686601847</v>
       </c>
       <c r="S7" t="n">
-        <v>1.237678410071982</v>
+        <v>1.237678410071925</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3034474975137357</v>
+        <v>0.3034474975137219</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003873797840600888</v>
+        <v>0.00387379784060071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,31 +31513,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
         <v>354.9824263269073</v>
@@ -31549,7 +31549,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
         <v>10.8061339609081</v>
@@ -31598,16 +31598,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
         <v>334.6599825043656</v>
@@ -31616,25 +31616,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
         <v>164.6271425440336</v>
@@ -31695,25 +31695,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32072,13 +32072,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32327,10 +32327,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,16 +32546,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>420.766193382324</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504302</v>
@@ -32564,13 +32564,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>179.7929176910672</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>489.7119024980487</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33020,10 +33020,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>471.6886536848224</v>
@@ -33038,13 +33038,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.0576276814857</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33257,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>490.1800829631214</v>
+        <v>151.1434552068896</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33275,16 +33275,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,7 +33494,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
@@ -33506,16 +33506,16 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>672.0481308502335</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33740,7 +33740,7 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>490.1800829631214</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,10 +33749,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,13 +33968,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>327.6251317733713</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
@@ -33986,10 +33986,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>327.6251317733713</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745725</v>
@@ -34223,10 +34223,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.942898598716</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
@@ -34442,7 +34442,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
@@ -34454,16 +34454,16 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>596.068849638979</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.71334579105919</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>36.92627338448402</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="N3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>40.13082199480434</v>
+        <v>31.4026388274741</v>
       </c>
       <c r="N5" t="n">
-        <v>38.50937464147891</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>7.106735814004164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.256827284351266</v>
+        <v>7.2568272843509</v>
       </c>
       <c r="K6" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="L6" t="n">
-        <v>40.13082199480434</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>31.25254735712765</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>31.25254735712734</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>38.14870690784728</v>
+        <v>38.1487069078468</v>
       </c>
       <c r="M7" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="N7" t="n">
-        <v>40.13082199480434</v>
+        <v>40.13082199480365</v>
       </c>
       <c r="O7" t="n">
-        <v>34.62342938498343</v>
+        <v>34.62342938498297</v>
       </c>
       <c r="P7" t="n">
-        <v>5.868060343452509</v>
+        <v>5.868060343452115</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>197.7888359819416</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134834</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35975,10 +35975,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>83.37217397760996</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K19" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L19" t="n">
-        <v>395.2708559913275</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M19" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N19" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O19" t="n">
-        <v>374.3220064275854</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P19" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020591</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
@@ -36136,7 +36136,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134825</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
         <v>367.2547334404112</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>282.2118136024498</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
@@ -36212,13 +36212,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>45.81851027673699</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83.37217397760996</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K22" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L22" t="n">
-        <v>395.2708559913275</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M22" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N22" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O22" t="n">
-        <v>374.3220064275854</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P22" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.019162307857922e-12</v>
       </c>
       <c r="J23" t="n">
         <v>282.3190661607202</v>
@@ -36364,7 +36364,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020582</v>
+        <v>728.2874363020591</v>
       </c>
       <c r="N23" t="n">
         <v>744.73230092637</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>12.5890754270154</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>355.7374950837184</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>83.37217397760996</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K25" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L25" t="n">
-        <v>395.2708559913275</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M25" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N25" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O25" t="n">
-        <v>374.3220064275854</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P25" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>333.8472147104634</v>
@@ -36686,13 +36686,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.07585359546421</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>83.37217397760996</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K28" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2708559913275</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M28" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N28" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O28" t="n">
-        <v>374.3220064275854</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P28" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607219</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>351.6257031832473</v>
+        <v>12.58907542701538</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36923,16 +36923,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>83.37217397760996</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K31" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L31" t="n">
-        <v>395.2708559913275</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M31" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N31" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O31" t="n">
-        <v>374.3220064275854</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P31" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q31" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
@@ -37154,16 +37154,16 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>529.9140969282151</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.874844725331</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K34" t="n">
         <v>287.3461619788763</v>
@@ -37233,7 +37233,7 @@
         <v>416.7735267390486</v>
       </c>
       <c r="M34" t="n">
-        <v>448.5591570030133</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N34" t="n">
         <v>443.9796355355866</v>
@@ -37242,7 +37242,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P34" t="n">
-        <v>318.5600083078064</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q34" t="n">
         <v>143.9970777191504</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37388,7 +37388,7 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>351.6257031832473</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,10 +37397,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>189.7836927990123</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
@@ -37634,10 +37634,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>189.7836927990123</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946983</v>
@@ -37871,10 +37871,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845839</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
@@ -38102,16 +38102,16 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>453.9348157169607</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.8748447253311</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>287.3461619788763</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L46" t="n">
-        <v>416.7735267390486</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M46" t="n">
         <v>448.5591570030133</v>
@@ -38190,7 +38190,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>318.5600083078065</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
         <v>143.9970777191504</v>
